--- a/FB LoginPage TCs.xlsx
+++ b/FB LoginPage TCs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\FBLoginTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF9F05D-951C-480A-B6BA-A6D0471E92E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EF9968-0DCC-4896-91AD-ED497F754F0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">TEST CASES ON FACEBOOK OF LOGIN PAGE </t>
   </si>
@@ -123,6 +123,45 @@
   <si>
     <t>Verify that the login functionality should work in different
 browsers. (Cross browser testing).</t>
+  </si>
+  <si>
+    <t>Verify that placeholder and tooltip are present or not.</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>Verify that the login screen is responsive according to different screen sizes. (Responsive Testing).</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>Verify that user is able to input username and password.</t>
+  </si>
+  <si>
+    <t>Verify that password is masked/encrypted.</t>
+  </si>
+  <si>
+    <t>Verify that password should be visible when eye button is clicked and vice-versa.</t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>TC-018</t>
+  </si>
+  <si>
+    <t>TC-019</t>
   </si>
 </sst>
 </file>
@@ -520,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,6 +764,61 @@
         <v>31</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>

--- a/FB LoginPage TCs.xlsx
+++ b/FB LoginPage TCs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\FBLoginTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EF9968-0DCC-4896-91AD-ED497F754F0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201CD268-9D90-4AA2-B9A5-31BDA7C20EA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
   <si>
     <t xml:space="preserve">TEST CASES ON FACEBOOK OF LOGIN PAGE </t>
   </si>
@@ -143,9 +143,6 @@
     <t>TC-015</t>
   </si>
   <si>
-    <t>Verify that user is able to input username and password.</t>
-  </si>
-  <si>
     <t>Verify that password is masked/encrypted.</t>
   </si>
   <si>
@@ -162,6 +159,192 @@
   </si>
   <si>
     <t>TC-019</t>
+  </si>
+  <si>
+    <t>Verify that user is able to input email/phone number and password.</t>
+  </si>
+  <si>
+    <t>Verify the Min and Max allowed limits of characters of email and number.</t>
+  </si>
+  <si>
+    <t>Verify the Min and Max allowed limits of characters of password.</t>
+  </si>
+  <si>
+    <t>Verify the redirection of all links in footer  section.</t>
+  </si>
+  <si>
+    <t>TC-020</t>
+  </si>
+  <si>
+    <t>Verify users is not able to login when email and password are blank.</t>
+  </si>
+  <si>
+    <t>TC-021</t>
+  </si>
+  <si>
+    <t>TC-022</t>
+  </si>
+  <si>
+    <t>Verify users is not able to login with blank email field and valid password.</t>
+  </si>
+  <si>
+    <t>TC-023</t>
+  </si>
+  <si>
+    <t>TC-024</t>
+  </si>
+  <si>
+    <t>TC-025</t>
+  </si>
+  <si>
+    <t>Verify users is not able to login with valid email and blank password field.</t>
+  </si>
+  <si>
+    <t>Verify that correct error message is displayed when user is trying to login with blank fields.</t>
+  </si>
+  <si>
+    <t>TC-026</t>
+  </si>
+  <si>
+    <t>Verify that correct error message is displayed when user is trying to login with blank email but valid password.</t>
+  </si>
+  <si>
+    <t>Verify that correct error message is displayed when user is trying to login with valid email but blank password.</t>
+  </si>
+  <si>
+    <t>TC-027</t>
+  </si>
+  <si>
+    <t>TC-028</t>
+  </si>
+  <si>
+    <t>TC-029</t>
+  </si>
+  <si>
+    <t>TC-030</t>
+  </si>
+  <si>
+    <t>TC-031</t>
+  </si>
+  <si>
+    <t>Verify users is not able to login with blank email field and Invalid password.</t>
+  </si>
+  <si>
+    <t>Verify that correct error message is displayed when user is trying to login with blank email and Invalid password.</t>
+  </si>
+  <si>
+    <t>Verify users is not able to login with Invalid email and blank password field.</t>
+  </si>
+  <si>
+    <t>Verify that correct error message is displayed when user is trying to login with Invalid email and blank password.</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to login with Valid email and Invalid password.</t>
+  </si>
+  <si>
+    <t>Verify that correct error message is displayed when user is trying to login with valid email and invalid password.</t>
+  </si>
+  <si>
+    <t>TC-032</t>
+  </si>
+  <si>
+    <t>TC-033</t>
+  </si>
+  <si>
+    <t>TC-034</t>
+  </si>
+  <si>
+    <t>TC-035</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to login with invalid email and valid password.</t>
+  </si>
+  <si>
+    <t>Verify that correct error message is displayed when user is trying to login with invalid email and valid password.</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to login with invalid email and invalid password.</t>
+  </si>
+  <si>
+    <t>Verify that correct error message is displayed when user is trying to login with invalid email and invalid password.</t>
+  </si>
+  <si>
+    <t>TC-036</t>
+  </si>
+  <si>
+    <t>TC-037</t>
+  </si>
+  <si>
+    <t>Verify that user is able to login with valid email and valid password.</t>
+  </si>
+  <si>
+    <t>Verify that correct message is displayed when user is logged in with valid email and valid password.</t>
+  </si>
+  <si>
+    <t>TC-038</t>
+  </si>
+  <si>
+    <t>Verify after login it should redirect to home page.</t>
+  </si>
+  <si>
+    <t>TC-039</t>
+  </si>
+  <si>
+    <t>TC-040</t>
+  </si>
+  <si>
+    <t>TC-041</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to login with old password.</t>
+  </si>
+  <si>
+    <t>Verify that user is able to login with new password.</t>
+  </si>
+  <si>
+    <t>TC-042</t>
+  </si>
+  <si>
+    <t>TC-043</t>
+  </si>
+  <si>
+    <t>Verify that user cannot set already used password as new password.</t>
+  </si>
+  <si>
+    <t>Verify that Max No.of unsuccessful login attempts allowed.</t>
+  </si>
+  <si>
+    <t>Verify that captcha, OTP, 2FA, MFA are working if enabled.</t>
+  </si>
+  <si>
+    <t>Verify that multiple login session are allowed or not.</t>
+  </si>
+  <si>
+    <t>TC-044</t>
+  </si>
+  <si>
+    <t>TC-045</t>
+  </si>
+  <si>
+    <t>TC-046</t>
+  </si>
+  <si>
+    <t>Verify the redirection of forgot password link.</t>
+  </si>
+  <si>
+    <t>Verify the redirection of create account button.</t>
+  </si>
+  <si>
+    <t>UI/UX</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
   </si>
 </sst>
 </file>
@@ -258,7 +441,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
@@ -559,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +754,7 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="57.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
@@ -683,6 +867,9 @@
       <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -691,6 +878,9 @@
       <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -699,6 +889,9 @@
       <c r="C23" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -707,6 +900,9 @@
       <c r="C24" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -715,6 +911,9 @@
       <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -723,6 +922,9 @@
       <c r="C26" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -731,6 +933,9 @@
       <c r="C27" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -739,6 +944,9 @@
       <c r="C28" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -747,6 +955,9 @@
       <c r="C29" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -755,6 +966,9 @@
       <c r="C30" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -763,6 +977,9 @@
       <c r="C31" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -771,52 +988,382 @@
       <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="C37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="C38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>44</v>
+      <c r="C39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/FB LoginPage TCs.xlsx
+++ b/FB LoginPage TCs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\FBLoginTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201CD268-9D90-4AA2-B9A5-31BDA7C20EA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66073463-9F70-4698-B29D-EF0F92E198FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
   <si>
     <t xml:space="preserve">TEST CASES ON FACEBOOK OF LOGIN PAGE </t>
   </si>
@@ -39,19 +39,10 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Test Data</t>
-  </si>
-  <si>
     <t>Steps</t>
   </si>
   <si>
-    <t>Expected Results</t>
-  </si>
-  <si>
     <t>Process/Feature</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
   </si>
   <si>
     <t>Login Screen</t>
@@ -345,6 +336,30 @@
   </si>
   <si>
     <t>Positive</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter Valid email.
+Enter Invalid Password.
+Click login button.</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter Invalid email.
+Enter Invalid Password.
+Click login button.</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter Valid username.
+Enter Valid Password.
+Click login button.</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter Invalid username.
+Enter Valid Password.
+Click login button.</t>
   </si>
 </sst>
 </file>
@@ -395,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,6 +427,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,16 +461,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -466,8 +493,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066800" y="390524"/>
-          <a:ext cx="9772650" cy="2867025"/>
+          <a:off x="314325" y="380999"/>
+          <a:ext cx="7162800" cy="2867025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64:D66"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,14 +781,11 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="57.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -769,10 +793,10 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -782,20 +806,17 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -805,15 +826,12 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="3"/>
       <c r="C3" s="5"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -827,13 +845,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -844,531 +859,546 @@
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="D21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="D23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="D26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="C28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="D27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="D30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" t="s">
+    <row r="55" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="4" t="s">
+    <row r="56" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>77</v>
       </c>
-      <c r="D53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="C56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>78</v>
       </c>
-      <c r="D54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="C57" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="4" t="s">
+      <c r="D58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>83</v>
       </c>
-      <c r="D57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="C59" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C60" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>85</v>
       </c>
-      <c r="D58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="C61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>89</v>
       </c>
-      <c r="D59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="C63" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
